--- a/Catalog DKS MX.xlsx
+++ b/Catalog DKS MX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be230b8ca95fc96a/Inova/09 - Update automation/Datasets/DKS MX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be230b8ca95fc96a/Inova/09 - Update automation/Datasets/Catalogos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{372C93FD-5423-466A-A0DD-66725E4C7D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D978A1E-D368-44C6-9627-F3341AA2F0D1}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{372C93FD-5423-466A-A0DD-66725E4C7D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A27D4F8E-E289-4FCD-B6A2-9AB778FD3A58}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="113">
   <si>
     <t>ORIGEN DE VENTA</t>
   </si>
@@ -337,6 +337,36 @@
   </si>
   <si>
     <t>INBOUND DIGITAL</t>
+  </si>
+  <si>
+    <t>EAGLE EYES INBOUND</t>
+  </si>
+  <si>
+    <t>EAGLE EYES WEB ASISTIDA</t>
+  </si>
+  <si>
+    <t>WHATSAPP EAGLE EYES</t>
+  </si>
+  <si>
+    <t>EAGLE EYES WEB</t>
+  </si>
+  <si>
+    <t>EAGLE EYES WEB SELF SERVICE</t>
+  </si>
+  <si>
+    <t>TIK TOK SHOP</t>
+  </si>
+  <si>
+    <t>TIKTOK</t>
+  </si>
+  <si>
+    <t>SUPER SOFIA IA</t>
+  </si>
+  <si>
+    <t>THERAMED</t>
+  </si>
+  <si>
+    <t>SOGNARE AGENTE IA</t>
   </si>
 </sst>
 </file>
@@ -690,11 +720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1758,18 +1788,73 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="3"/>
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="3"/>
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="3"/>
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="3"/>
+      <c r="A96" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>